--- a/FSP_Exchange/data/Trisomy/2_FMF_UK_A4_cv__ds_ntphcgbdvpi_2A4.xlsx
+++ b/FSP_Exchange/data/Trisomy/2_FMF_UK_A4_cv__ds_ntphcgbdvpi_2A4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glohezic\DEV\CLINICAL_VALIDATIONS\1T_TRISO\2_FMF_UK_A4\feedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thermofisher-my.sharepoint.com/personal/heike_goehler_thermofisher_com/Documents/FSP_Exchange/data/Trisomy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210DAE07-DEBF-4F48-BF45-2DA6A9814D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{210DAE07-DEBF-4F48-BF45-2DA6A9814D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76F5A323-2571-452C-B016-275F10D18CCE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FSP output'!$A$1:$O$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">original_data!$A$1:$AY$31</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -350,7 +363,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -407,12 +420,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -716,9 +740,9 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -947,7 +971,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1021,7 +1045,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1095,7 +1119,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -1169,7 +1193,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1243,7 +1267,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1323,7 +1347,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1397,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1471,7 +1495,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1619,7 +1643,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1693,7 +1717,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1767,7 +1791,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -1841,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -1915,7 +1939,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -1989,7 +2013,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -2063,7 +2087,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -2137,7 +2161,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -2211,7 +2235,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2285,7 +2309,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -2359,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -2433,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -2507,7 +2531,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -2581,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -2655,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -2729,7 +2753,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -2803,7 +2827,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2877,7 +2901,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2951,7 +2975,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -3025,7 +3049,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -3110,27 +3134,27 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
@@ -3177,7 +3201,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -3212,7 +3236,7 @@
         <v>1.4339793768999999E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -3247,7 +3271,7 @@
         <v>3.891920709036E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -3282,7 +3306,7 @@
         <v>4.6515280984999997E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -3317,7 +3341,7 @@
         <v>2.2090622054326998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -3352,7 +3376,7 @@
         <v>3.0914841492000001E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -3387,7 +3411,7 @@
         <v>3.5992759303000002E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -3422,7 +3446,7 @@
         <v>1.1324198017697629E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -3457,7 +3481,7 @@
         <v>2.0121165904600001E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -3492,7 +3516,7 @@
         <v>2.8212877671999999E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -3527,7 +3551,7 @@
         <v>1.37819566266E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -3562,7 +3586,7 @@
         <v>3.4776249814561089E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -3597,7 +3621,7 @@
         <v>2.8408098562904101E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -3632,7 +3656,7 @@
         <v>5.8547950092899998E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -3667,7 +3691,7 @@
         <v>2.4783149735200001E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -3702,7 +3726,7 @@
         <v>7.777296882968194E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -3737,7 +3761,7 @@
         <v>4.4904724790000003E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -3772,7 +3796,7 @@
         <v>7.2554852618999996E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -3807,7 +3831,7 @@
         <v>3.6312076601040168E-7</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -3842,7 +3866,7 @@
         <v>2.8083478462499999E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -3877,7 +3901,7 @@
         <v>3.1438951047999999E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -3912,7 +3936,7 @@
         <v>1.3371542729999999E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -3947,7 +3971,7 @@
         <v>9.0546406800769998E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3982,7 +4006,7 @@
         <v>2.16937052484E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -4017,7 +4041,7 @@
         <v>6.0575915978869701E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -4052,7 +4076,7 @@
         <v>2.6185121781000002E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -4087,7 +4111,7 @@
         <v>7.6266491785075992E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -4122,7 +4146,7 @@
         <v>5.1640615772299999E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -4157,7 +4181,7 @@
         <v>1.059352151675E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -4192,7 +4216,7 @@
         <v>4.6467386916197E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -4229,6 +4253,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O31" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>